--- a/data/pca/factorExposure/factorExposure_2015-08-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02520895217866874</v>
+        <v>0.01642732618808458</v>
       </c>
       <c r="C2">
-        <v>0.02625479857869062</v>
+        <v>0.04792379234963459</v>
       </c>
       <c r="D2">
-        <v>-0.131099457535044</v>
+        <v>0.1374771368777688</v>
       </c>
       <c r="E2">
-        <v>0.01491875228459878</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.003477418228114667</v>
+      </c>
+      <c r="F2">
+        <v>-0.0005382237058749004</v>
+      </c>
+      <c r="G2">
+        <v>-0.1100115607179792</v>
+      </c>
+      <c r="H2">
+        <v>-0.04414145873708713</v>
+      </c>
+      <c r="I2">
+        <v>-0.06015050013698229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01135442985732761</v>
+        <v>-0.0138892645699196</v>
       </c>
       <c r="C3">
-        <v>0.03662312177070843</v>
+        <v>0.0215710295534907</v>
       </c>
       <c r="D3">
-        <v>-0.01161168738690314</v>
+        <v>0.01282347916351429</v>
       </c>
       <c r="E3">
-        <v>0.03991022257227918</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.03182572622276408</v>
+      </c>
+      <c r="F3">
+        <v>-0.002391057084631503</v>
+      </c>
+      <c r="G3">
+        <v>-0.07435303354475424</v>
+      </c>
+      <c r="H3">
+        <v>-0.00819996552507965</v>
+      </c>
+      <c r="I3">
+        <v>0.0916159123898186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0366077856144023</v>
+        <v>0.02461466199757223</v>
       </c>
       <c r="C4">
-        <v>0.06937342877223478</v>
+        <v>0.09132603392127583</v>
       </c>
       <c r="D4">
-        <v>-0.1384331533393918</v>
+        <v>0.149330371010177</v>
       </c>
       <c r="E4">
-        <v>0.0725748645266668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01913160673679049</v>
+      </c>
+      <c r="F4">
+        <v>-0.08518548913358807</v>
+      </c>
+      <c r="G4">
+        <v>0.002138352797880742</v>
+      </c>
+      <c r="H4">
+        <v>-0.04268770278838874</v>
+      </c>
+      <c r="I4">
+        <v>-0.02151074422211929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02723515750637139</v>
+        <v>0.02725991755755415</v>
       </c>
       <c r="C6">
-        <v>0.01439760913904718</v>
+        <v>0.03090372231176725</v>
       </c>
       <c r="D6">
-        <v>-0.1440477215485439</v>
+        <v>0.1258564620791226</v>
       </c>
       <c r="E6">
-        <v>0.03575686943889647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03470720004900018</v>
+      </c>
+      <c r="F6">
+        <v>-0.04989924553403973</v>
+      </c>
+      <c r="G6">
+        <v>-0.04509445593139248</v>
+      </c>
+      <c r="H6">
+        <v>-0.02275863986000917</v>
+      </c>
+      <c r="I6">
+        <v>0.02446452567166632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.008371004450495564</v>
+        <v>0.006614506859786308</v>
       </c>
       <c r="C7">
-        <v>0.02462773427115963</v>
+        <v>0.03497400088920344</v>
       </c>
       <c r="D7">
-        <v>-0.1193424447610714</v>
+        <v>0.1021065730371952</v>
       </c>
       <c r="E7">
-        <v>-0.005136675657577265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04286350899222333</v>
+      </c>
+      <c r="F7">
+        <v>-0.01010927990192267</v>
+      </c>
+      <c r="G7">
+        <v>-0.03310099301350051</v>
+      </c>
+      <c r="H7">
+        <v>-0.0598252010184566</v>
+      </c>
+      <c r="I7">
+        <v>0.04468540938950241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003085074755487463</v>
+        <v>-0.005482057841581711</v>
       </c>
       <c r="C8">
-        <v>0.03134455835421674</v>
+        <v>0.03851082253030434</v>
       </c>
       <c r="D8">
-        <v>-0.0821649784455749</v>
+        <v>0.08174907278585178</v>
       </c>
       <c r="E8">
-        <v>0.03228207188659817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01116730302810971</v>
+      </c>
+      <c r="F8">
+        <v>-0.0468896025248102</v>
+      </c>
+      <c r="G8">
+        <v>-0.09687491623485361</v>
+      </c>
+      <c r="H8">
+        <v>0.01011324096162478</v>
+      </c>
+      <c r="I8">
+        <v>0.04268125113349053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03261683878167401</v>
+        <v>0.01962642873441049</v>
       </c>
       <c r="C9">
-        <v>0.06413212133684454</v>
+        <v>0.08079287751901019</v>
       </c>
       <c r="D9">
-        <v>-0.1311762979785762</v>
+        <v>0.1244818163172924</v>
       </c>
       <c r="E9">
-        <v>0.06007123986944868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01029165697345237</v>
+      </c>
+      <c r="F9">
+        <v>-0.05073461101660651</v>
+      </c>
+      <c r="G9">
+        <v>0.003365281288730748</v>
+      </c>
+      <c r="H9">
+        <v>-0.04857260371907157</v>
+      </c>
+      <c r="I9">
+        <v>-0.0008402384654403232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.157198141722599</v>
+        <v>0.2161163021660621</v>
       </c>
       <c r="C10">
-        <v>-0.1675770987828505</v>
+        <v>-0.1180047531211435</v>
       </c>
       <c r="D10">
-        <v>-0.01190358509566376</v>
+        <v>0.00439640202587301</v>
       </c>
       <c r="E10">
-        <v>0.04607308494160654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02536241998826791</v>
+      </c>
+      <c r="F10">
+        <v>-0.04615051348562258</v>
+      </c>
+      <c r="G10">
+        <v>0.00629250450451443</v>
+      </c>
+      <c r="H10">
+        <v>0.06318319777930441</v>
+      </c>
+      <c r="I10">
+        <v>0.105604741986558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02293527100104147</v>
+        <v>0.01309707002114395</v>
       </c>
       <c r="C11">
-        <v>0.04314265424267851</v>
+        <v>0.05308399568221805</v>
       </c>
       <c r="D11">
-        <v>-0.0557704069849188</v>
+        <v>0.04847165478497373</v>
       </c>
       <c r="E11">
-        <v>-0.01324384028810411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01849033220320128</v>
+      </c>
+      <c r="F11">
+        <v>0.01341754123811971</v>
+      </c>
+      <c r="G11">
+        <v>-0.009620718103004158</v>
+      </c>
+      <c r="H11">
+        <v>-0.04384707693120645</v>
+      </c>
+      <c r="I11">
+        <v>-0.01323491169580315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02488709015118385</v>
+        <v>0.01376965823909294</v>
       </c>
       <c r="C12">
-        <v>0.04164514073737406</v>
+        <v>0.04983287280698579</v>
       </c>
       <c r="D12">
-        <v>-0.06803158629936498</v>
+        <v>0.05056364823894961</v>
       </c>
       <c r="E12">
-        <v>-0.0002661876877181518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.015567829117846</v>
+      </c>
+      <c r="F12">
+        <v>0.01586319543071897</v>
+      </c>
+      <c r="G12">
+        <v>-0.005087468258011547</v>
+      </c>
+      <c r="H12">
+        <v>-0.07199234412606317</v>
+      </c>
+      <c r="I12">
+        <v>-0.001254724188191452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.003959018073997515</v>
+        <v>0.005749631905941043</v>
       </c>
       <c r="C13">
-        <v>0.02759943707576975</v>
+        <v>0.04372936524639714</v>
       </c>
       <c r="D13">
-        <v>-0.1530599474988226</v>
+        <v>0.156740023050252</v>
       </c>
       <c r="E13">
-        <v>0.03789859144318452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0388505599138559</v>
+      </c>
+      <c r="F13">
+        <v>-0.04143000759282613</v>
+      </c>
+      <c r="G13">
+        <v>-0.05539127696133445</v>
+      </c>
+      <c r="H13">
+        <v>-0.05773160367809348</v>
+      </c>
+      <c r="I13">
+        <v>0.07641743585584516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.002406746017412942</v>
+        <v>9.639336432973635e-05</v>
       </c>
       <c r="C14">
-        <v>0.02266340629388736</v>
+        <v>0.02923376227888682</v>
       </c>
       <c r="D14">
-        <v>-0.110930765371509</v>
+        <v>0.1061378703029885</v>
       </c>
       <c r="E14">
-        <v>0.02678452381154068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01799250425614749</v>
+      </c>
+      <c r="F14">
+        <v>-0.02150120195001239</v>
+      </c>
+      <c r="G14">
+        <v>-0.06390207784948777</v>
+      </c>
+      <c r="H14">
+        <v>-0.1039200193037033</v>
+      </c>
+      <c r="I14">
+        <v>0.02310297481255439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.002827375010569861</v>
+        <v>-0.001039203361884754</v>
       </c>
       <c r="C15">
-        <v>0.01100214790780637</v>
+        <v>0.01789489286598584</v>
       </c>
       <c r="D15">
-        <v>-0.02382490638995736</v>
+        <v>0.05018792425104575</v>
       </c>
       <c r="E15">
-        <v>-0.01002890711811081</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.003795328554181986</v>
+      </c>
+      <c r="F15">
+        <v>-0.001920988893053689</v>
+      </c>
+      <c r="G15">
+        <v>-0.02413097875052903</v>
+      </c>
+      <c r="H15">
+        <v>-0.01112286986790382</v>
+      </c>
+      <c r="I15">
+        <v>-0.02107015708929653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.0210829897512767</v>
+        <v>0.01314014653576633</v>
       </c>
       <c r="C16">
-        <v>0.03951862587790722</v>
+        <v>0.04775994352164919</v>
       </c>
       <c r="D16">
-        <v>-0.06318025141873349</v>
+        <v>0.0490321649831201</v>
       </c>
       <c r="E16">
-        <v>-0.005342114921813619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0191645602262269</v>
+      </c>
+      <c r="F16">
+        <v>0.007310741940446318</v>
+      </c>
+      <c r="G16">
+        <v>-0.001926145558922617</v>
+      </c>
+      <c r="H16">
+        <v>-0.05109964562938031</v>
+      </c>
+      <c r="I16">
+        <v>-0.009902911472380399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.005199415004372154</v>
+        <v>0.0007433810382047903</v>
       </c>
       <c r="C19">
-        <v>0.02272611747506323</v>
+        <v>0.02037990139356727</v>
       </c>
       <c r="D19">
-        <v>-0.1365434282372769</v>
+        <v>0.09022196339399097</v>
       </c>
       <c r="E19">
-        <v>0.07177419239628589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02224989366749039</v>
+      </c>
+      <c r="F19">
+        <v>-0.008529407602349532</v>
+      </c>
+      <c r="G19">
+        <v>-0.03388882614939572</v>
+      </c>
+      <c r="H19">
+        <v>-0.06462868699111091</v>
+      </c>
+      <c r="I19">
+        <v>0.03508376556225754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.005598319680721948</v>
+        <v>0.004656340603222428</v>
       </c>
       <c r="C20">
-        <v>0.03140551598377199</v>
+        <v>0.04104330526501547</v>
       </c>
       <c r="D20">
-        <v>-0.09289254964443637</v>
+        <v>0.1003434441746564</v>
       </c>
       <c r="E20">
-        <v>0.04404950058843035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.001763599733808093</v>
+      </c>
+      <c r="F20">
+        <v>-0.02936961475076897</v>
+      </c>
+      <c r="G20">
+        <v>-0.03741799688082709</v>
+      </c>
+      <c r="H20">
+        <v>-0.05859200169181247</v>
+      </c>
+      <c r="I20">
+        <v>0.01816748427839311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005609466524779405</v>
+        <v>0.001800201477938772</v>
       </c>
       <c r="C21">
-        <v>0.03550734678581476</v>
+        <v>0.04232602991366795</v>
       </c>
       <c r="D21">
-        <v>-0.1725825347201978</v>
+        <v>0.1433642435520764</v>
       </c>
       <c r="E21">
-        <v>0.08186613608597837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01775980930248974</v>
+      </c>
+      <c r="F21">
+        <v>-0.06383778754192437</v>
+      </c>
+      <c r="G21">
+        <v>-0.07210945666751435</v>
+      </c>
+      <c r="H21">
+        <v>-0.1487210744205933</v>
+      </c>
+      <c r="I21">
+        <v>0.09799536457366478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002187322283561683</v>
+        <v>-0.005029575060812852</v>
       </c>
       <c r="C22">
-        <v>0.05667850872423734</v>
+        <v>0.07020077600556278</v>
       </c>
       <c r="D22">
-        <v>-0.1962369851484898</v>
+        <v>0.241536057281295</v>
       </c>
       <c r="E22">
-        <v>-0.05145102058098309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0413117368468305</v>
+      </c>
+      <c r="F22">
+        <v>-0.0291804003878838</v>
+      </c>
+      <c r="G22">
+        <v>-0.1786645644526838</v>
+      </c>
+      <c r="H22">
+        <v>0.4621842441999549</v>
+      </c>
+      <c r="I22">
+        <v>-0.2285600104450375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001991584136176056</v>
+        <v>-0.004570245485124592</v>
       </c>
       <c r="C23">
-        <v>0.05713708790766583</v>
+        <v>0.07107433222999357</v>
       </c>
       <c r="D23">
-        <v>-0.1957730633361516</v>
+        <v>0.2422121299046127</v>
       </c>
       <c r="E23">
-        <v>-0.05124014243399251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03834773208917682</v>
+      </c>
+      <c r="F23">
+        <v>-0.02830321348719022</v>
+      </c>
+      <c r="G23">
+        <v>-0.1771913003163468</v>
+      </c>
+      <c r="H23">
+        <v>0.4621578891139093</v>
+      </c>
+      <c r="I23">
+        <v>-0.2296739727745185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0282177806056272</v>
+        <v>0.01432718033830191</v>
       </c>
       <c r="C24">
-        <v>0.05779916820045344</v>
+        <v>0.06484137699712597</v>
       </c>
       <c r="D24">
-        <v>-0.07448299884430641</v>
+        <v>0.05765853542395664</v>
       </c>
       <c r="E24">
-        <v>0.001065859487031043</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02062859599364843</v>
+      </c>
+      <c r="F24">
+        <v>0.006229923763254545</v>
+      </c>
+      <c r="G24">
+        <v>-0.01501011613583026</v>
+      </c>
+      <c r="H24">
+        <v>-0.07506710469853736</v>
+      </c>
+      <c r="I24">
+        <v>-0.01315454824746301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03307152395906753</v>
+        <v>0.01914691596110801</v>
       </c>
       <c r="C25">
-        <v>0.04919141266319473</v>
+        <v>0.06071702152610501</v>
       </c>
       <c r="D25">
-        <v>-0.06765702815943492</v>
+        <v>0.05519411277444262</v>
       </c>
       <c r="E25">
-        <v>0.007390194010860332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008420984414316844</v>
+      </c>
+      <c r="F25">
+        <v>0.009677861078945789</v>
+      </c>
+      <c r="G25">
+        <v>-0.003083708914160056</v>
+      </c>
+      <c r="H25">
+        <v>-0.04516352149606241</v>
+      </c>
+      <c r="I25">
+        <v>-0.005530980607341888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.005485852394979776</v>
+        <v>0.009095557580890468</v>
       </c>
       <c r="C26">
-        <v>0.0150783255984039</v>
+        <v>0.02201794310631409</v>
       </c>
       <c r="D26">
-        <v>-0.0802174040345895</v>
+        <v>0.0730546875279502</v>
       </c>
       <c r="E26">
-        <v>0.02601024707958681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01759891047495776</v>
+      </c>
+      <c r="F26">
+        <v>-0.02706945990346488</v>
+      </c>
+      <c r="G26">
+        <v>-0.03095252671948641</v>
+      </c>
+      <c r="H26">
+        <v>-0.07252750112695734</v>
+      </c>
+      <c r="I26">
+        <v>0.05312686405604494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2416025507522676</v>
+        <v>0.3127074531776752</v>
       </c>
       <c r="C28">
-        <v>-0.2151309321392794</v>
+        <v>-0.136046983678058</v>
       </c>
       <c r="D28">
-        <v>-0.01126914675125935</v>
+        <v>-0.004903400618011881</v>
       </c>
       <c r="E28">
-        <v>0.06600511051825725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.04665806399775762</v>
+      </c>
+      <c r="F28">
+        <v>-0.03336321466793691</v>
+      </c>
+      <c r="G28">
+        <v>0.02138493418514679</v>
+      </c>
+      <c r="H28">
+        <v>0.03422015662347559</v>
+      </c>
+      <c r="I28">
+        <v>0.06494737793770193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002141519691055733</v>
+        <v>-0.0001615460833262591</v>
       </c>
       <c r="C29">
-        <v>0.0207561085084615</v>
+        <v>0.02916285204346943</v>
       </c>
       <c r="D29">
-        <v>-0.1029909868696969</v>
+        <v>0.1033023604591469</v>
       </c>
       <c r="E29">
-        <v>0.02054686198589687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03227113533821945</v>
+      </c>
+      <c r="F29">
+        <v>-0.03044920014618348</v>
+      </c>
+      <c r="G29">
+        <v>-0.05003682407897805</v>
+      </c>
+      <c r="H29">
+        <v>-0.1009462973814977</v>
+      </c>
+      <c r="I29">
+        <v>0.03179714730683832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02166810871460197</v>
+        <v>0.01826561600326698</v>
       </c>
       <c r="C30">
-        <v>0.05880217077755142</v>
+        <v>0.07979643868482587</v>
       </c>
       <c r="D30">
-        <v>-0.1641637046299577</v>
+        <v>0.1649078431299199</v>
       </c>
       <c r="E30">
-        <v>0.01307989659012162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03732585350049593</v>
+      </c>
+      <c r="F30">
+        <v>-0.03477827760912248</v>
+      </c>
+      <c r="G30">
+        <v>-0.0378055615732853</v>
+      </c>
+      <c r="H30">
+        <v>-0.03631264638455337</v>
+      </c>
+      <c r="I30">
+        <v>-0.0617906186452727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04253525029686211</v>
+        <v>0.01679983705492964</v>
       </c>
       <c r="C31">
-        <v>0.08290545102671174</v>
+        <v>0.08893319696341093</v>
       </c>
       <c r="D31">
-        <v>-0.08173856184421067</v>
+        <v>0.04679290885662601</v>
       </c>
       <c r="E31">
-        <v>0.02646119501136503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008001237763651895</v>
+      </c>
+      <c r="F31">
+        <v>-0.01865581131821652</v>
+      </c>
+      <c r="G31">
+        <v>-0.02295827757051702</v>
+      </c>
+      <c r="H31">
+        <v>-0.04055701255430508</v>
+      </c>
+      <c r="I31">
+        <v>0.06634751160141168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02430017647726087</v>
+        <v>0.01886727918539727</v>
       </c>
       <c r="C32">
-        <v>0.03051978982934344</v>
+        <v>0.03841942833016243</v>
       </c>
       <c r="D32">
-        <v>-0.1079634450836527</v>
+        <v>0.112488606035607</v>
       </c>
       <c r="E32">
-        <v>0.05577439005160955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0004612580253464802</v>
+      </c>
+      <c r="F32">
+        <v>-0.04413351519140058</v>
+      </c>
+      <c r="G32">
+        <v>-0.02615991224686675</v>
+      </c>
+      <c r="H32">
+        <v>-0.01834168206914252</v>
+      </c>
+      <c r="I32">
+        <v>0.07026910396398454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.0168882879079989</v>
+        <v>0.01108382063833295</v>
       </c>
       <c r="C33">
-        <v>0.04096980385511701</v>
+        <v>0.05572157759548241</v>
       </c>
       <c r="D33">
-        <v>-0.1539834187891779</v>
+        <v>0.1347609999088241</v>
       </c>
       <c r="E33">
-        <v>0.04755334616736109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01185866975933027</v>
+      </c>
+      <c r="F33">
+        <v>-0.02329707749008441</v>
+      </c>
+      <c r="G33">
+        <v>-0.02939691841675456</v>
+      </c>
+      <c r="H33">
+        <v>-0.05407653221049143</v>
+      </c>
+      <c r="I33">
+        <v>0.01243925587912823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02780624063029978</v>
+        <v>0.01295830995793223</v>
       </c>
       <c r="C34">
-        <v>0.05842822869084458</v>
+        <v>0.06342133840161523</v>
       </c>
       <c r="D34">
-        <v>-0.05492737524916914</v>
+        <v>0.03595921970875771</v>
       </c>
       <c r="E34">
-        <v>-0.04005752400648508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02841402649991577</v>
+      </c>
+      <c r="F34">
+        <v>0.03775861812494118</v>
+      </c>
+      <c r="G34">
+        <v>-0.01088995677303117</v>
+      </c>
+      <c r="H34">
+        <v>-0.05706289496874926</v>
+      </c>
+      <c r="I34">
+        <v>0.003338808783659663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001207363241710193</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004449623958590256</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01489805343427953</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.001947713118125641</v>
+      </c>
+      <c r="F35">
+        <v>0.0009252753256937461</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007376941823207907</v>
+      </c>
+      <c r="H35">
+        <v>-0.007871314257957398</v>
+      </c>
+      <c r="I35">
+        <v>-0.00277492167076653</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01138956290522241</v>
+        <v>0.0137237516801099</v>
       </c>
       <c r="C36">
-        <v>0.004262074787925515</v>
+        <v>0.0174909515858653</v>
       </c>
       <c r="D36">
-        <v>-0.09979222828282493</v>
+        <v>0.08685536395260604</v>
       </c>
       <c r="E36">
-        <v>0.04885719917783148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.004632275129134669</v>
+      </c>
+      <c r="F36">
+        <v>-0.03462962230303231</v>
+      </c>
+      <c r="G36">
+        <v>-0.0218634295836265</v>
+      </c>
+      <c r="H36">
+        <v>-0.05971629950811685</v>
+      </c>
+      <c r="I36">
+        <v>0.02725605064703735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.007411609519690564</v>
+        <v>0.0160247593810328</v>
       </c>
       <c r="C38">
-        <v>0.01231260686581161</v>
+        <v>0.01755531095164714</v>
       </c>
       <c r="D38">
-        <v>-0.09376797436961468</v>
+        <v>0.09021453536987985</v>
       </c>
       <c r="E38">
-        <v>0.03455542058847211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01571471899689787</v>
+      </c>
+      <c r="F38">
+        <v>0.0101985984568172</v>
+      </c>
+      <c r="G38">
+        <v>-0.0384763118074441</v>
+      </c>
+      <c r="H38">
+        <v>-0.04393878133430806</v>
+      </c>
+      <c r="I38">
+        <v>0.02844586163382856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02112844013272602</v>
+        <v>0.01000250061195968</v>
       </c>
       <c r="C39">
-        <v>0.05754234867457984</v>
+        <v>0.07527299760421996</v>
       </c>
       <c r="D39">
-        <v>-0.1159543101891032</v>
+        <v>0.1098957657222111</v>
       </c>
       <c r="E39">
-        <v>-0.01739852437314459</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04255401249275598</v>
+      </c>
+      <c r="F39">
+        <v>0.008505714774369037</v>
+      </c>
+      <c r="G39">
+        <v>-0.01794240495660044</v>
+      </c>
+      <c r="H39">
+        <v>-0.1005699205028045</v>
+      </c>
+      <c r="I39">
+        <v>-0.04217882067056436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01339595170435968</v>
+        <v>0.006591585890277044</v>
       </c>
       <c r="C40">
-        <v>0.04081353482753336</v>
+        <v>0.04197142433217264</v>
       </c>
       <c r="D40">
-        <v>-0.1190294512631436</v>
+        <v>0.100908361890116</v>
       </c>
       <c r="E40">
-        <v>0.04365508356290313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01827841540549317</v>
+      </c>
+      <c r="F40">
+        <v>-0.01687545110779803</v>
+      </c>
+      <c r="G40">
+        <v>-0.2473315942240379</v>
+      </c>
+      <c r="H40">
+        <v>-0.02315496755015484</v>
+      </c>
+      <c r="I40">
+        <v>0.1870366157645897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01881846206896831</v>
+        <v>0.0177779700401743</v>
       </c>
       <c r="C41">
-        <v>0.003396529914988379</v>
+        <v>0.0149391358462803</v>
       </c>
       <c r="D41">
-        <v>-0.07405943653607489</v>
+        <v>0.05221583260023735</v>
       </c>
       <c r="E41">
-        <v>0.0444247373870232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01734430619546888</v>
+      </c>
+      <c r="F41">
+        <v>-0.01524683208551175</v>
+      </c>
+      <c r="G41">
+        <v>-0.0262439526291626</v>
+      </c>
+      <c r="H41">
+        <v>-0.02712417545976813</v>
+      </c>
+      <c r="I41">
+        <v>0.03838410806213769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01072168008956545</v>
+        <v>0.009916606747014594</v>
       </c>
       <c r="C43">
-        <v>0.008429317530091603</v>
+        <v>0.01642626695887377</v>
       </c>
       <c r="D43">
-        <v>-0.0913695352262639</v>
+        <v>0.06722239351711289</v>
       </c>
       <c r="E43">
-        <v>0.04223018407469543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.005842987158684331</v>
+      </c>
+      <c r="F43">
+        <v>-0.01357827889314017</v>
+      </c>
+      <c r="G43">
+        <v>-0.03290650775506452</v>
+      </c>
+      <c r="H43">
+        <v>-0.05890950523517761</v>
+      </c>
+      <c r="I43">
+        <v>0.04076486487149127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.00625051528507134</v>
+        <v>0.007773546574303867</v>
       </c>
       <c r="C44">
-        <v>0.03974832604845682</v>
+        <v>0.04650577787426147</v>
       </c>
       <c r="D44">
-        <v>-0.09986660513514202</v>
+        <v>0.1121844475985025</v>
       </c>
       <c r="E44">
-        <v>0.04836810922418779</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.003138939626140208</v>
+      </c>
+      <c r="F44">
+        <v>-0.02071506277898121</v>
+      </c>
+      <c r="G44">
+        <v>-0.03326817754956483</v>
+      </c>
+      <c r="H44">
+        <v>-0.04622090761652946</v>
+      </c>
+      <c r="I44">
+        <v>-0.0300013694591601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.009086166053822967</v>
+        <v>0.001862854882554279</v>
       </c>
       <c r="C46">
-        <v>0.02832007363647716</v>
+        <v>0.03735638204816076</v>
       </c>
       <c r="D46">
-        <v>-0.1075366172409853</v>
+        <v>0.08897805242306431</v>
       </c>
       <c r="E46">
-        <v>0.02999416574174377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01712126806844088</v>
+      </c>
+      <c r="F46">
+        <v>-0.02250009998563282</v>
+      </c>
+      <c r="G46">
+        <v>-0.04836440408847872</v>
+      </c>
+      <c r="H46">
+        <v>-0.1122233552422018</v>
+      </c>
+      <c r="I46">
+        <v>0.0317491855046776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.0798681189198823</v>
+        <v>0.04207223592876463</v>
       </c>
       <c r="C47">
-        <v>0.1058410035489732</v>
+        <v>0.1197593186564244</v>
       </c>
       <c r="D47">
-        <v>-0.06383457399739338</v>
+        <v>0.02674882718382975</v>
       </c>
       <c r="E47">
-        <v>0.03811992285359678</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009588948099159876</v>
+      </c>
+      <c r="F47">
+        <v>0.004415737197534555</v>
+      </c>
+      <c r="G47">
+        <v>0.02438298939036256</v>
+      </c>
+      <c r="H47">
+        <v>-0.03845190279431931</v>
+      </c>
+      <c r="I47">
+        <v>0.1254348115402435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007057314181841402</v>
+        <v>0.009703458708340995</v>
       </c>
       <c r="C48">
-        <v>0.01712530169604699</v>
+        <v>0.0255456746873943</v>
       </c>
       <c r="D48">
-        <v>-0.0957111576620337</v>
+        <v>0.08681176942588759</v>
       </c>
       <c r="E48">
-        <v>0.06930788008084562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01161895831641409</v>
+      </c>
+      <c r="F48">
+        <v>-0.03853548707598604</v>
+      </c>
+      <c r="G48">
+        <v>-0.03591792963007423</v>
+      </c>
+      <c r="H48">
+        <v>-0.07874175089514443</v>
+      </c>
+      <c r="I48">
+        <v>0.02718252715135054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04067343860099588</v>
+        <v>0.01883297412222782</v>
       </c>
       <c r="C50">
-        <v>0.06241314907969732</v>
+        <v>0.07346126768727128</v>
       </c>
       <c r="D50">
-        <v>-0.07920203568639173</v>
+        <v>0.0536693225902426</v>
       </c>
       <c r="E50">
-        <v>0.02268707171417473</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0009461535770890418</v>
+      </c>
+      <c r="F50">
+        <v>-0.007618185361815849</v>
+      </c>
+      <c r="G50">
+        <v>-0.03656729100386567</v>
+      </c>
+      <c r="H50">
+        <v>-0.02086659359331828</v>
+      </c>
+      <c r="I50">
+        <v>0.1006198501305683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.003144820983419999</v>
+        <v>0.003743894763173582</v>
       </c>
       <c r="C51">
-        <v>0.008674271038693669</v>
+        <v>0.0179081362362326</v>
       </c>
       <c r="D51">
-        <v>-0.06699881799594758</v>
+        <v>0.07305825355295027</v>
       </c>
       <c r="E51">
-        <v>-0.003059726063336707</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02957780131473497</v>
+      </c>
+      <c r="F51">
+        <v>-0.03162185739118582</v>
+      </c>
+      <c r="G51">
+        <v>-0.04693602949965986</v>
+      </c>
+      <c r="H51">
+        <v>-0.04016224877914518</v>
+      </c>
+      <c r="I51">
+        <v>0.009952820177621237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1044845449723985</v>
+        <v>0.06732357046813024</v>
       </c>
       <c r="C53">
-        <v>0.1257311515474935</v>
+        <v>0.1522542329173228</v>
       </c>
       <c r="D53">
-        <v>-0.0184885490326429</v>
+        <v>-0.00529614746572239</v>
       </c>
       <c r="E53">
-        <v>0.07395464985302896</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04021403185405643</v>
+      </c>
+      <c r="F53">
+        <v>-0.05991752786338956</v>
+      </c>
+      <c r="G53">
+        <v>-0.02871799902861833</v>
+      </c>
+      <c r="H53">
+        <v>-0.006484902775182679</v>
+      </c>
+      <c r="I53">
+        <v>0.09976216991960286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01541674974691935</v>
+        <v>0.01175354237679127</v>
       </c>
       <c r="C54">
-        <v>0.02248452334805693</v>
+        <v>0.03640578513187241</v>
       </c>
       <c r="D54">
-        <v>-0.1155973359161211</v>
+        <v>0.09284839045444021</v>
       </c>
       <c r="E54">
-        <v>0.01974134704507794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009956897822341814</v>
+      </c>
+      <c r="F54">
+        <v>0.00107332979720714</v>
+      </c>
+      <c r="G54">
+        <v>-0.05266724112752327</v>
+      </c>
+      <c r="H54">
+        <v>-0.07055354452310589</v>
+      </c>
+      <c r="I54">
+        <v>0.05966692003635862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09326854465289647</v>
+        <v>0.05412629815591553</v>
       </c>
       <c r="C55">
-        <v>0.1037448526301415</v>
+        <v>0.1259223256594672</v>
       </c>
       <c r="D55">
-        <v>-0.005087736531112964</v>
+        <v>-0.01852753913295658</v>
       </c>
       <c r="E55">
-        <v>0.02785503205406718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003327460291282536</v>
+      </c>
+      <c r="F55">
+        <v>-0.02556957400209522</v>
+      </c>
+      <c r="G55">
+        <v>-0.03942335950688498</v>
+      </c>
+      <c r="H55">
+        <v>0.00775725438157813</v>
+      </c>
+      <c r="I55">
+        <v>0.08003603470541665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1307737743517269</v>
+        <v>0.07776585396390807</v>
       </c>
       <c r="C56">
-        <v>0.1326091363119789</v>
+        <v>0.175940588219291</v>
       </c>
       <c r="D56">
-        <v>-0.0001281235646557099</v>
+        <v>-0.01996963414379809</v>
       </c>
       <c r="E56">
-        <v>0.03536139553373068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03336290745030384</v>
+      </c>
+      <c r="F56">
+        <v>-0.01998522234711156</v>
+      </c>
+      <c r="G56">
+        <v>-0.04747205844035071</v>
+      </c>
+      <c r="H56">
+        <v>0.02645772356907973</v>
+      </c>
+      <c r="I56">
+        <v>0.08412396926579359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01784070975616868</v>
+        <v>-0.002531236026484969</v>
       </c>
       <c r="C58">
-        <v>0.01838017314945294</v>
+        <v>0.04373397205376241</v>
       </c>
       <c r="D58">
-        <v>-0.2041678042720867</v>
+        <v>0.2798323932480176</v>
       </c>
       <c r="E58">
-        <v>0.07318292721125717</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.03682245329851697</v>
+      </c>
+      <c r="F58">
+        <v>-0.09027531898447679</v>
+      </c>
+      <c r="G58">
+        <v>-0.07455337692540208</v>
+      </c>
+      <c r="H58">
+        <v>0.1530936569933862</v>
+      </c>
+      <c r="I58">
+        <v>-0.07876223660191174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1710181649899184</v>
+        <v>0.2347925091746992</v>
       </c>
       <c r="C59">
-        <v>-0.1518722566482415</v>
+        <v>-0.09301580133197626</v>
       </c>
       <c r="D59">
-        <v>-0.04465216022479211</v>
+        <v>0.06050908949914911</v>
       </c>
       <c r="E59">
-        <v>0.04857721309934903</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03684712978940848</v>
+      </c>
+      <c r="F59">
+        <v>-0.01287322819529711</v>
+      </c>
+      <c r="G59">
+        <v>0.001475011008786073</v>
+      </c>
+      <c r="H59">
+        <v>0.01571993301668012</v>
+      </c>
+      <c r="I59">
+        <v>0.01421883435464035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2010732004608583</v>
+        <v>0.1603279563142686</v>
       </c>
       <c r="C60">
-        <v>0.103263179904075</v>
+        <v>0.1664325371693458</v>
       </c>
       <c r="D60">
-        <v>-0.1638509822345889</v>
+        <v>0.08533208812424102</v>
       </c>
       <c r="E60">
-        <v>-0.2611934761031149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2513772086321873</v>
+      </c>
+      <c r="F60">
+        <v>0.1554508136653752</v>
+      </c>
+      <c r="G60">
+        <v>0.2511061575651071</v>
+      </c>
+      <c r="H60">
+        <v>0.1121078901414629</v>
+      </c>
+      <c r="I60">
+        <v>-0.02832214793110594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03257721223412942</v>
+        <v>0.01862434933999911</v>
       </c>
       <c r="C61">
-        <v>0.0562245055444087</v>
+        <v>0.07117508186243353</v>
       </c>
       <c r="D61">
-        <v>-0.1127036054804847</v>
+        <v>0.08868461827382529</v>
       </c>
       <c r="E61">
-        <v>0.0002861004767598685</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03489145560404806</v>
+      </c>
+      <c r="F61">
+        <v>0.0173461616957132</v>
+      </c>
+      <c r="G61">
+        <v>-0.001553715249953962</v>
+      </c>
+      <c r="H61">
+        <v>-0.09545147398296761</v>
+      </c>
+      <c r="I61">
+        <v>0.009607267528971706</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01025614291103268</v>
+        <v>0.005266747697575921</v>
       </c>
       <c r="C63">
-        <v>0.02427208679866129</v>
+        <v>0.03521713847097407</v>
       </c>
       <c r="D63">
-        <v>-0.0954610891194683</v>
+        <v>0.07532897144694289</v>
       </c>
       <c r="E63">
-        <v>0.01487726230359018</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02042620396218139</v>
+      </c>
+      <c r="F63">
+        <v>-0.01969071455475271</v>
+      </c>
+      <c r="G63">
+        <v>-0.03006032650064604</v>
+      </c>
+      <c r="H63">
+        <v>-0.05182927878366505</v>
+      </c>
+      <c r="I63">
+        <v>0.01206105475506661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06209769756835783</v>
+        <v>0.03130028801795439</v>
       </c>
       <c r="C64">
-        <v>0.08362948214444431</v>
+        <v>0.1019718241531408</v>
       </c>
       <c r="D64">
-        <v>-0.05243138775691869</v>
+        <v>0.0380918087890444</v>
       </c>
       <c r="E64">
-        <v>0.01187127996118075</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03138315965244139</v>
+      </c>
+      <c r="F64">
+        <v>-0.02316138945732172</v>
+      </c>
+      <c r="G64">
+        <v>0.02627931243889921</v>
+      </c>
+      <c r="H64">
+        <v>-0.1141543192029514</v>
+      </c>
+      <c r="I64">
+        <v>-0.03270808928707573</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0264616058226703</v>
+        <v>0.02203807564410045</v>
       </c>
       <c r="C65">
-        <v>0.01669842124794257</v>
+        <v>0.03636101023578893</v>
       </c>
       <c r="D65">
-        <v>-0.1179698446215662</v>
+        <v>0.1063485368656199</v>
       </c>
       <c r="E65">
-        <v>0.003674062416126478</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03783491101455409</v>
+      </c>
+      <c r="F65">
+        <v>-0.008527072976536038</v>
+      </c>
+      <c r="G65">
+        <v>-0.008007809993557335</v>
+      </c>
+      <c r="H65">
+        <v>-0.01318494877158639</v>
+      </c>
+      <c r="I65">
+        <v>0.01646113455484307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02539991167870684</v>
+        <v>0.01224753804361275</v>
       </c>
       <c r="C66">
-        <v>0.06370868710099434</v>
+        <v>0.08733672648111206</v>
       </c>
       <c r="D66">
-        <v>-0.1224041780848423</v>
+        <v>0.1337617982936798</v>
       </c>
       <c r="E66">
-        <v>-0.02074935173978297</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03502783981840018</v>
+      </c>
+      <c r="F66">
+        <v>0.01812928893060743</v>
+      </c>
+      <c r="G66">
+        <v>-0.01132488371473907</v>
+      </c>
+      <c r="H66">
+        <v>-0.05737975038944013</v>
+      </c>
+      <c r="I66">
+        <v>-0.05596517976993384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02784374370475622</v>
+        <v>0.02754103431235689</v>
       </c>
       <c r="C67">
-        <v>0.0239848178664295</v>
+        <v>0.0305034702969198</v>
       </c>
       <c r="D67">
-        <v>-0.04756762343909303</v>
+        <v>0.03818555068535537</v>
       </c>
       <c r="E67">
-        <v>0.008710923035661575</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>6.924179258022213e-05</v>
+      </c>
+      <c r="F67">
+        <v>0.03096853178486998</v>
+      </c>
+      <c r="G67">
+        <v>-0.02991335596706571</v>
+      </c>
+      <c r="H67">
+        <v>-0.0555551976324966</v>
+      </c>
+      <c r="I67">
+        <v>0.01836777448159016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2090892058640395</v>
+        <v>0.2629860116555929</v>
       </c>
       <c r="C68">
-        <v>-0.165316460105428</v>
+        <v>-0.09309581153559798</v>
       </c>
       <c r="D68">
-        <v>-0.03124125091831241</v>
+        <v>0.03046316296895279</v>
       </c>
       <c r="E68">
-        <v>0.01270591357406286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.002979066433395035</v>
+      </c>
+      <c r="F68">
+        <v>-0.02417399215210391</v>
+      </c>
+      <c r="G68">
+        <v>-0.05006322618167698</v>
+      </c>
+      <c r="H68">
+        <v>0.0482060443425637</v>
+      </c>
+      <c r="I68">
+        <v>0.07779864655691122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06206329662835775</v>
+        <v>0.02996628964429201</v>
       </c>
       <c r="C69">
-        <v>0.1147980740130238</v>
+        <v>0.12007456563836</v>
       </c>
       <c r="D69">
-        <v>-0.08826005968551227</v>
+        <v>0.0436326972549132</v>
       </c>
       <c r="E69">
-        <v>0.01785672633264267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.007140792381401676</v>
+      </c>
+      <c r="F69">
+        <v>0.009501890497148403</v>
+      </c>
+      <c r="G69">
+        <v>0.01200856315319984</v>
+      </c>
+      <c r="H69">
+        <v>-0.04127119932146728</v>
+      </c>
+      <c r="I69">
+        <v>0.07501081563861206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.210853751106778</v>
+        <v>0.2631094585358252</v>
       </c>
       <c r="C71">
-        <v>-0.1826436455726675</v>
+        <v>-0.108390973852793</v>
       </c>
       <c r="D71">
-        <v>-0.03491862917461024</v>
+        <v>0.02631183843354938</v>
       </c>
       <c r="E71">
-        <v>0.02574113832974691</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008655810207366088</v>
+      </c>
+      <c r="F71">
+        <v>-0.02260176955510421</v>
+      </c>
+      <c r="G71">
+        <v>-0.05282146978277776</v>
+      </c>
+      <c r="H71">
+        <v>0.01016835780797598</v>
+      </c>
+      <c r="I71">
+        <v>0.1542112562396178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1039819778225818</v>
+        <v>0.06601430095315965</v>
       </c>
       <c r="C72">
-        <v>0.0739285975117288</v>
+        <v>0.118557477223412</v>
       </c>
       <c r="D72">
-        <v>-0.0954945249766833</v>
+        <v>0.07112561048123665</v>
       </c>
       <c r="E72">
-        <v>-0.04858598691044495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08811919960447481</v>
+      </c>
+      <c r="F72">
+        <v>0.008264263027449118</v>
+      </c>
+      <c r="G72">
+        <v>-0.009408999080064238</v>
+      </c>
+      <c r="H72">
+        <v>-0.05510630447360255</v>
+      </c>
+      <c r="I72">
+        <v>-0.02012707659846873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1788051708480826</v>
+        <v>0.1437114306217098</v>
       </c>
       <c r="C73">
-        <v>0.04846112207265054</v>
+        <v>0.1226056043235972</v>
       </c>
       <c r="D73">
-        <v>-0.215502286480046</v>
+        <v>0.08871218711766554</v>
       </c>
       <c r="E73">
-        <v>-0.4275361536031306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.4338012854763031</v>
+      </c>
+      <c r="F73">
+        <v>0.2269199610505449</v>
+      </c>
+      <c r="G73">
+        <v>0.4351285660973156</v>
+      </c>
+      <c r="H73">
+        <v>0.02766802638329395</v>
+      </c>
+      <c r="I73">
+        <v>-0.01463150248858149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1043551687669794</v>
+        <v>0.06148578544649928</v>
       </c>
       <c r="C74">
-        <v>0.1103052174569949</v>
+        <v>0.1362387320280893</v>
       </c>
       <c r="D74">
-        <v>0.01951219355455474</v>
+        <v>-0.03605786158432851</v>
       </c>
       <c r="E74">
-        <v>0.05367970608510093</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01852465526919372</v>
+      </c>
+      <c r="F74">
+        <v>-0.05258462119445556</v>
+      </c>
+      <c r="G74">
+        <v>-0.003260231420483675</v>
+      </c>
+      <c r="H74">
+        <v>0.01753679242089467</v>
+      </c>
+      <c r="I74">
+        <v>0.09245292502601252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2399671373446906</v>
+        <v>0.1480097865619941</v>
       </c>
       <c r="C75">
-        <v>0.1959446192496433</v>
+        <v>0.2591465582808869</v>
       </c>
       <c r="D75">
-        <v>0.1064350242515365</v>
+        <v>-0.1315944664964608</v>
       </c>
       <c r="E75">
-        <v>0.01797358034695681</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08023888175753194</v>
+      </c>
+      <c r="F75">
+        <v>0.03825333023678001</v>
+      </c>
+      <c r="G75">
+        <v>-0.06337849016467617</v>
+      </c>
+      <c r="H75">
+        <v>0.02598664727804863</v>
+      </c>
+      <c r="I75">
+        <v>0.05128352438164711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1427033159011014</v>
+        <v>0.08332417212423926</v>
       </c>
       <c r="C76">
-        <v>0.1387162254205228</v>
+        <v>0.1768368038026725</v>
       </c>
       <c r="D76">
-        <v>-0.01093628381045502</v>
+        <v>-0.02338971733348904</v>
       </c>
       <c r="E76">
-        <v>0.04224834984518192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03508234992947752</v>
+      </c>
+      <c r="F76">
+        <v>-0.008978277407828902</v>
+      </c>
+      <c r="G76">
+        <v>-0.05774826367969213</v>
+      </c>
+      <c r="H76">
+        <v>-0.01068815284800589</v>
+      </c>
+      <c r="I76">
+        <v>0.08363662134801415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02555726442357216</v>
+        <v>0.0338805764611096</v>
       </c>
       <c r="C77">
-        <v>0.08434124728695126</v>
+        <v>0.09805595359404866</v>
       </c>
       <c r="D77">
-        <v>-0.05906819430455822</v>
+        <v>0.2439183953616729</v>
       </c>
       <c r="E77">
-        <v>0.3276024056297431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7132397812783187</v>
+      </c>
+      <c r="F77">
+        <v>0.3651384464924925</v>
+      </c>
+      <c r="G77">
+        <v>0.3594628268936066</v>
+      </c>
+      <c r="H77">
+        <v>0.2101524679894999</v>
+      </c>
+      <c r="I77">
+        <v>0.1340335806572943</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02476790147819394</v>
+        <v>0.01983894469761873</v>
       </c>
       <c r="C78">
-        <v>0.06988608692380352</v>
+        <v>0.08359151620410617</v>
       </c>
       <c r="D78">
-        <v>-0.1602353981014039</v>
+        <v>0.1424352966076103</v>
       </c>
       <c r="E78">
-        <v>0.02474932762855445</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04445535001663759</v>
+      </c>
+      <c r="F78">
+        <v>-0.03940402836480924</v>
+      </c>
+      <c r="G78">
+        <v>-0.01766392357578532</v>
+      </c>
+      <c r="H78">
+        <v>-0.01998376669884285</v>
+      </c>
+      <c r="I78">
+        <v>-0.008313139129859325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.07575373121618062</v>
+        <v>0.0437283772921573</v>
       </c>
       <c r="C79">
-        <v>0.1472232055134048</v>
+        <v>0.1694808991159926</v>
       </c>
       <c r="D79">
-        <v>0.09982650067983906</v>
+        <v>-0.05214983574228182</v>
       </c>
       <c r="E79">
-        <v>0.5859181487446707</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1322496844231914</v>
+      </c>
+      <c r="F79">
+        <v>-0.7976807450667395</v>
+      </c>
+      <c r="G79">
+        <v>0.4474486513213151</v>
+      </c>
+      <c r="H79">
+        <v>0.07520552762242706</v>
+      </c>
+      <c r="I79">
+        <v>-0.1227108883851062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.008387068902658782</v>
+        <v>0.0004223288883863916</v>
       </c>
       <c r="C80">
-        <v>0.05016466416171534</v>
+        <v>0.0517730868259441</v>
       </c>
       <c r="D80">
-        <v>-0.04740874700371933</v>
+        <v>0.0432802328068002</v>
       </c>
       <c r="E80">
-        <v>0.004932626705708491</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01867614134382864</v>
+      </c>
+      <c r="F80">
+        <v>-0.01631540208851483</v>
+      </c>
+      <c r="G80">
+        <v>-0.06644891202624283</v>
+      </c>
+      <c r="H80">
+        <v>-0.005358398706106393</v>
+      </c>
+      <c r="I80">
+        <v>0.03781570964824097</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1189808664829267</v>
+        <v>0.06321635399336917</v>
       </c>
       <c r="C81">
-        <v>0.1385276704669061</v>
+        <v>0.1637937032168521</v>
       </c>
       <c r="D81">
-        <v>0.06693466740381208</v>
+        <v>-0.07719618251325631</v>
       </c>
       <c r="E81">
-        <v>0.1004527845787529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07511344410399004</v>
+      </c>
+      <c r="F81">
+        <v>-0.05206736978062217</v>
+      </c>
+      <c r="G81">
+        <v>-0.07979119947318523</v>
+      </c>
+      <c r="H81">
+        <v>-0.04374928143960436</v>
+      </c>
+      <c r="I81">
+        <v>0.1258072463934259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2450949169471279</v>
+        <v>0.1261899833928349</v>
       </c>
       <c r="C82">
-        <v>0.298021414828114</v>
+        <v>0.3211713517886822</v>
       </c>
       <c r="D82">
-        <v>0.21291720063741</v>
+        <v>-0.226334026911292</v>
       </c>
       <c r="E82">
-        <v>-0.0738564462368855</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03874577453574019</v>
+      </c>
+      <c r="F82">
+        <v>0.1116558760549073</v>
+      </c>
+      <c r="G82">
+        <v>-0.0789418455154121</v>
+      </c>
+      <c r="H82">
+        <v>-0.06417586805724709</v>
+      </c>
+      <c r="I82">
+        <v>0.06569656241344922</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002257142695069383</v>
+        <v>-0.007250135301117684</v>
       </c>
       <c r="C83">
-        <v>0.0594814022240549</v>
+        <v>0.04509296249339286</v>
       </c>
       <c r="D83">
-        <v>-0.02962967159064958</v>
+        <v>0.04618605533294183</v>
       </c>
       <c r="E83">
-        <v>0.07742002467309597</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1060222427153396</v>
+      </c>
+      <c r="F83">
+        <v>-0.004422450139929594</v>
+      </c>
+      <c r="G83">
+        <v>-0.05290822894672282</v>
+      </c>
+      <c r="H83">
+        <v>-0.07165388877547152</v>
+      </c>
+      <c r="I83">
+        <v>-0.02729283541155866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0006212724555426263</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01334637171853522</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.0370964456915634</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.006101702109907642</v>
+      </c>
+      <c r="F84">
+        <v>-0.01775799208336346</v>
+      </c>
+      <c r="G84">
+        <v>-0.03796049664987915</v>
+      </c>
+      <c r="H84">
+        <v>0.01415099700189998</v>
+      </c>
+      <c r="I84">
+        <v>-0.03290227443180493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1477901335356423</v>
+        <v>0.08333157974256719</v>
       </c>
       <c r="C85">
-        <v>0.1425841457943468</v>
+        <v>0.1858528731036546</v>
       </c>
       <c r="D85">
-        <v>0.04495161232950063</v>
+        <v>-0.08727766463520201</v>
       </c>
       <c r="E85">
-        <v>0.002251697899472876</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-9.914480912456639e-05</v>
+      </c>
+      <c r="F85">
+        <v>-0.07605383838331325</v>
+      </c>
+      <c r="G85">
+        <v>-0.02043059000095405</v>
+      </c>
+      <c r="H85">
+        <v>0.01059732173970161</v>
+      </c>
+      <c r="I85">
+        <v>0.08364872894371876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0140211076180204</v>
+        <v>0.01204345455369517</v>
       </c>
       <c r="C86">
-        <v>0.02550603166209257</v>
+        <v>0.03170269318718653</v>
       </c>
       <c r="D86">
-        <v>-0.08919638093928658</v>
+        <v>0.1053032087678401</v>
       </c>
       <c r="E86">
-        <v>0.07038258880270302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04545562931432361</v>
+      </c>
+      <c r="F86">
+        <v>0.01619684189288456</v>
+      </c>
+      <c r="G86">
+        <v>-0.01580769417338727</v>
+      </c>
+      <c r="H86">
+        <v>-0.003726560847415804</v>
+      </c>
+      <c r="I86">
+        <v>0.1376838003295812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02353166381266283</v>
+        <v>0.02286161073056914</v>
       </c>
       <c r="C87">
-        <v>0.0207282459390081</v>
+        <v>0.04705981642530278</v>
       </c>
       <c r="D87">
-        <v>-0.1217467139233012</v>
+        <v>0.1469668751513298</v>
       </c>
       <c r="E87">
-        <v>0.05648156820249162</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01814377741203152</v>
+      </c>
+      <c r="F87">
+        <v>-0.03634592958637287</v>
+      </c>
+      <c r="G87">
+        <v>-0.06307505861448888</v>
+      </c>
+      <c r="H87">
+        <v>-0.01674236604367131</v>
+      </c>
+      <c r="I87">
+        <v>-0.08587714706336877</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06005415775646303</v>
+        <v>0.04008047873432481</v>
       </c>
       <c r="C88">
-        <v>0.0430757206752585</v>
+        <v>0.062490594966003</v>
       </c>
       <c r="D88">
-        <v>-0.04912803865191544</v>
+        <v>0.01498851457048926</v>
       </c>
       <c r="E88">
-        <v>0.02997491579636192</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02064564147478325</v>
+      </c>
+      <c r="F88">
+        <v>-0.02729612414722375</v>
+      </c>
+      <c r="G88">
+        <v>0.009979581801236209</v>
+      </c>
+      <c r="H88">
+        <v>-0.02438434752492655</v>
+      </c>
+      <c r="I88">
+        <v>0.05014036085491098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3175023245894493</v>
+        <v>0.3976625116902159</v>
       </c>
       <c r="C89">
-        <v>-0.3308798987456889</v>
+        <v>-0.2016314196034724</v>
       </c>
       <c r="D89">
-        <v>-0.02568414444859127</v>
+        <v>0.0255619659446567</v>
       </c>
       <c r="E89">
-        <v>0.1380552289928917</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05501711964123382</v>
+      </c>
+      <c r="F89">
+        <v>-0.06155047796788198</v>
+      </c>
+      <c r="G89">
+        <v>-0.09759387004428442</v>
+      </c>
+      <c r="H89">
+        <v>-0.1772537136803841</v>
+      </c>
+      <c r="I89">
+        <v>-0.2928491962372156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2553043247636954</v>
+        <v>0.310616474290185</v>
       </c>
       <c r="C90">
-        <v>-0.2461684385816972</v>
+        <v>-0.1376665340153517</v>
       </c>
       <c r="D90">
-        <v>-0.02841546622046672</v>
+        <v>0.03608164415628078</v>
       </c>
       <c r="E90">
-        <v>0.007548699712623078</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01120050264261956</v>
+      </c>
+      <c r="F90">
+        <v>0.01935534300758469</v>
+      </c>
+      <c r="G90">
+        <v>-0.04886211202602923</v>
+      </c>
+      <c r="H90">
+        <v>0.03556334095593672</v>
+      </c>
+      <c r="I90">
+        <v>0.04741350592545463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1567711079087221</v>
+        <v>0.08733419529380293</v>
       </c>
       <c r="C91">
-        <v>0.1828324318525872</v>
+        <v>0.2059478940937413</v>
       </c>
       <c r="D91">
-        <v>0.105823830850037</v>
+        <v>-0.112264113347296</v>
       </c>
       <c r="E91">
-        <v>0.1129270279010023</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07768595628031418</v>
+      </c>
+      <c r="F91">
+        <v>-0.07697505377776939</v>
+      </c>
+      <c r="G91">
+        <v>-0.02217408321984098</v>
+      </c>
+      <c r="H91">
+        <v>0.01378865321455814</v>
+      </c>
+      <c r="I91">
+        <v>0.1199035241172592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2282213779989564</v>
+        <v>0.3161089518474339</v>
       </c>
       <c r="C92">
-        <v>-0.2570333281562852</v>
+        <v>-0.1742986515592017</v>
       </c>
       <c r="D92">
-        <v>0.04097159130843308</v>
+        <v>-0.001120273026204954</v>
       </c>
       <c r="E92">
-        <v>0.06749612825646849</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07711815337831397</v>
+      </c>
+      <c r="F92">
+        <v>-0.02219323404942623</v>
+      </c>
+      <c r="G92">
+        <v>-0.02337275697040418</v>
+      </c>
+      <c r="H92">
+        <v>-0.0004439443254635152</v>
+      </c>
+      <c r="I92">
+        <v>-0.09817929729949341</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2784770563279442</v>
+        <v>0.326098185672365</v>
       </c>
       <c r="C93">
-        <v>-0.2537092398926123</v>
+        <v>-0.1445213314733811</v>
       </c>
       <c r="D93">
-        <v>-0.01676303342829296</v>
+        <v>-0.0111682974840801</v>
       </c>
       <c r="E93">
-        <v>-0.004473298937102748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03609798428428379</v>
+      </c>
+      <c r="F93">
+        <v>-0.01227141426067057</v>
+      </c>
+      <c r="G93">
+        <v>0.02560704679199761</v>
+      </c>
+      <c r="H93">
+        <v>0.02653048323743843</v>
+      </c>
+      <c r="I93">
+        <v>0.1032621517981045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.306350890327438</v>
+        <v>0.1801995746884706</v>
       </c>
       <c r="C94">
-        <v>0.2655462289915732</v>
+        <v>0.3463333271242766</v>
       </c>
       <c r="D94">
-        <v>0.3579565379595792</v>
+        <v>-0.354313813304684</v>
       </c>
       <c r="E94">
-        <v>-0.1430131286379838</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04742560275659985</v>
+      </c>
+      <c r="F94">
+        <v>0.1097490964340324</v>
+      </c>
+      <c r="G94">
+        <v>-0.2687818640387921</v>
+      </c>
+      <c r="H94">
+        <v>0.1305345366940571</v>
+      </c>
+      <c r="I94">
+        <v>-0.3963023229801576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02707654035783333</v>
+        <v>0.02518346660668825</v>
       </c>
       <c r="C95">
-        <v>0.03786344646616973</v>
+        <v>0.06166990335872444</v>
       </c>
       <c r="D95">
-        <v>-0.08385004097109378</v>
+        <v>0.1157790428206597</v>
       </c>
       <c r="E95">
-        <v>0.1913503064979619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.2150279493343088</v>
+      </c>
+      <c r="F95">
+        <v>0.1322614898929361</v>
+      </c>
+      <c r="G95">
+        <v>0.1337349528267305</v>
+      </c>
+      <c r="H95">
+        <v>-0.4613883502549485</v>
+      </c>
+      <c r="I95">
+        <v>-0.5382624821493187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0008583125872228239</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001497576469820094</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0009125528578768102</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.000385479831644378</v>
+      </c>
+      <c r="F97">
+        <v>0.001633863701663298</v>
+      </c>
+      <c r="G97">
+        <v>0.001246020817609041</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003271617625342654</v>
+      </c>
+      <c r="I97">
+        <v>0.0001010187807144777</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1527776715929313</v>
+        <v>0.1273043190040859</v>
       </c>
       <c r="C98">
-        <v>0.06947262792820488</v>
+        <v>0.128686382732407</v>
       </c>
       <c r="D98">
-        <v>-0.1230394317023031</v>
+        <v>0.06435528480458684</v>
       </c>
       <c r="E98">
-        <v>-0.2796217786917944</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2875668452542386</v>
+      </c>
+      <c r="F98">
+        <v>0.1492313018108301</v>
+      </c>
+      <c r="G98">
+        <v>0.2569621093426709</v>
+      </c>
+      <c r="H98">
+        <v>0.06587292862152665</v>
+      </c>
+      <c r="I98">
+        <v>-0.02575211776508369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001710396438636231</v>
+        <v>0.0002200704296648333</v>
       </c>
       <c r="C101">
-        <v>0.02024090407774639</v>
+        <v>0.0285956201855954</v>
       </c>
       <c r="D101">
-        <v>-0.1031662566581369</v>
+        <v>0.10293044808316</v>
       </c>
       <c r="E101">
-        <v>0.02228604501090583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03146872658504633</v>
+      </c>
+      <c r="F101">
+        <v>-0.03075348153503227</v>
+      </c>
+      <c r="G101">
+        <v>-0.05064201428762662</v>
+      </c>
+      <c r="H101">
+        <v>-0.1021702178483908</v>
+      </c>
+      <c r="I101">
+        <v>0.0313133681598513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1117212203730834</v>
+        <v>0.05241594997492135</v>
       </c>
       <c r="C102">
-        <v>0.1524540938030199</v>
+        <v>0.1531200062457272</v>
       </c>
       <c r="D102">
-        <v>0.07243111218375517</v>
+        <v>-0.09268599199928336</v>
       </c>
       <c r="E102">
-        <v>-0.01894765582690715</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02862832608998191</v>
+      </c>
+      <c r="F102">
+        <v>0.068104469767093</v>
+      </c>
+      <c r="G102">
+        <v>0.002284404443253178</v>
+      </c>
+      <c r="H102">
+        <v>-0.05217990998597521</v>
+      </c>
+      <c r="I102">
+        <v>0.01081933439860963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
